--- a/biology/Médecine/Gaetano_Benedetti/Gaetano_Benedetti.xlsx
+++ b/biology/Médecine/Gaetano_Benedetti/Gaetano_Benedetti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gaetano Benedetti, né le 7 juillet 1920 à Catane en Sicile[1] et mort le 2 décembre 2013, est un psychiatre, psychothérapeute et psychanalyste italien[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gaetano Benedetti, né le 7 juillet 1920 à Catane en Sicile et mort le 2 décembre 2013, est un psychiatre, psychothérapeute et psychanalyste italien.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a fait ses études médecine en Sicile, puis au Burghölzli à Zurich où il a effectué sa formation psychanalytique et psychiatrique[3], puis est allé aux États-Unis  pour se perfectionner dans l'approche psychanalytique des psychoses[4]. Il est professeur à l'université de Bâle, en Allemagne et en Italie[5]. 
-Il a notamment collaboré avec Christian Müller pour la création en 1956 du symposium international sur la psychothérapie des schizophrénies [6]. Gaetano Benedetti a également collaboré avec Pier Francesco Galli à la création de la collection de Feltrinelli "Biblioteca di Psichatria e Psicologia Clinica"[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a fait ses études médecine en Sicile, puis au Burghölzli à Zurich où il a effectué sa formation psychanalytique et psychiatrique, puis est allé aux États-Unis  pour se perfectionner dans l'approche psychanalytique des psychoses. Il est professeur à l'université de Bâle, en Allemagne et en Italie. 
+Il a notamment collaboré avec Christian Müller pour la création en 1956 du symposium international sur la psychothérapie des schizophrénies . Gaetano Benedetti a également collaboré avec Pier Francesco Galli à la création de la collection de Feltrinelli "Biblioteca di Psichatria e Psicologia Clinica".
 Il était le frère de l'entrepreneur Eugenio Benedetti, né en 1929.
 </t>
         </is>
